--- a/Titles.xlsx
+++ b/Titles.xlsx
@@ -6,13 +6,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>CafeC</t>
   </si>
@@ -110,6 +111,9 @@
     <t>use_album</t>
   </si>
   <si>
+    <t>input</t>
+  </si>
+  <si>
     <t>FixTheme</t>
   </si>
   <si>
@@ -201,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -216,6 +220,11 @@
       <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="游ゴシック体 ミディアム"/>
     </font>
     <font>
       <sz val="10"/>
@@ -233,8 +242,13 @@
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="游ゴシック体 ボールド"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,8 +285,26 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -325,6 +357,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -368,8 +415,56 @@
     </border>
     <border>
       <left/>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -383,6 +478,26 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -410,13 +525,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="19"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="19"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="19"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -438,79 +660,133 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -532,10 +808,15 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff365b9c"/>
       <rgbColor rgb="fff6be98"/>
       <rgbColor rgb="fffbe4d5"/>
       <rgbColor rgb="ffffc000"/>
       <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffa5a5a5"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -64620,19 +64901,21 @@
       <c r="F1" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" t="s" s="7">
+        <v>32</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" t="s" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
@@ -64652,24 +64935,23 @@
       </c>
       <c r="E2" s="14"/>
       <c r="F2" t="s" s="15">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="16">
-        <f>D2</f>
-        <v>803</v>
+        <v>546</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" t="s" s="9">
         <v>13</v>
       </c>
       <c r="J2" t="s" s="18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" s="19">
         <v>24</v>
       </c>
       <c r="L2" t="s" s="18">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -64692,21 +64974,20 @@
         <v>13</v>
       </c>
       <c r="G3" s="16">
-        <f>SUM(D3:D5)</f>
-        <v>516</v>
+        <v>785</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" t="s" s="9">
         <v>13</v>
       </c>
       <c r="J3" t="s" s="18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3" s="19">
         <v>6</v>
       </c>
       <c r="L3" t="s" s="18">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -64725,54 +65006,54 @@
         <v>183</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" t="s" s="15">
+      <c r="F4" t="s" s="20">
         <v>13</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="17"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
       <c r="I4" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s" s="18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4" s="19">
         <v>21</v>
       </c>
       <c r="L4" t="s" s="18">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="21">
+      <c r="A5" t="s" s="23">
         <v>13</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="24">
         <f>COUNTIF('Sheet1'!A1:A7000,A5)</f>
         <v>154</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="13">
         <f>B5-C5</f>
         <v>154</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" t="s" s="15">
+      <c r="F5" t="s" s="20">
         <v>13</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="17"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="22"/>
       <c r="I5" t="s" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s" s="18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" s="19">
         <v>9</v>
       </c>
       <c r="L5" t="s" s="18">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
@@ -64792,24 +65073,23 @@
       </c>
       <c r="E6" s="14"/>
       <c r="F6" t="s" s="15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="16">
-        <f>D6+D7+D8+D12</f>
-        <v>712</v>
+        <v>89</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s" s="18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" s="19">
         <v>21</v>
       </c>
       <c r="L6" t="s" s="18">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
@@ -64828,22 +65108,22 @@
         <v>178</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" t="s" s="15">
-        <v>41</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="17"/>
+      <c r="F7" t="s" s="20">
+        <v>42</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
       <c r="I7" t="s" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s" s="18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7" s="19">
         <v>9</v>
       </c>
       <c r="L7" t="s" s="18">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
@@ -64862,22 +65142,22 @@
         <v>179</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" t="s" s="15">
-        <v>41</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="17"/>
+      <c r="F8" t="s" s="20">
+        <v>42</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="22"/>
       <c r="I8" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s" s="18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8" s="19">
         <v>5</v>
       </c>
       <c r="L8" t="s" s="18">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
@@ -64897,24 +65177,23 @@
       </c>
       <c r="E9" s="14"/>
       <c r="F9" t="s" s="15">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="16">
-        <f>SUM(D9:D11)</f>
-        <v>537</v>
+        <v>89</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" t="s" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s" s="18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9" s="19">
         <v>10</v>
       </c>
       <c r="L9" t="s" s="18">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
@@ -64933,22 +65212,22 @@
         <v>179</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" t="s" s="15">
-        <v>45</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="17"/>
+      <c r="F10" t="s" s="20">
+        <v>46</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
       <c r="I10" t="s" s="9">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s" s="18">
         <v>47</v>
-      </c>
-      <c r="J10" t="s" s="18">
-        <v>46</v>
       </c>
       <c r="K10" s="19">
         <v>15</v>
       </c>
       <c r="L10" t="s" s="18">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -64967,22 +65246,22 @@
         <v>178</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" t="s" s="15">
-        <v>45</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="17"/>
+      <c r="F11" t="s" s="20">
+        <v>46</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="22"/>
       <c r="I11" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s" s="18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11" s="19">
         <v>9</v>
       </c>
       <c r="L11" t="s" s="18">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -65001,22 +65280,22 @@
         <v>177</v>
       </c>
       <c r="E12" s="14"/>
-      <c r="F12" t="s" s="15">
-        <v>41</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="17"/>
+      <c r="F12" t="s" s="20">
+        <v>42</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="22"/>
       <c r="I12" t="s" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s" s="18">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K12" s="19">
         <v>21</v>
       </c>
       <c r="L12" t="s" s="18">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
@@ -65036,24 +65315,23 @@
       </c>
       <c r="E13" s="14"/>
       <c r="F13" t="s" s="15">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="16">
-        <f>SUM(D13:D15)</f>
-        <v>546</v>
+        <v>774</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s" s="18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" s="19">
         <v>12</v>
       </c>
       <c r="L13" t="s" s="18">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
@@ -65072,22 +65350,22 @@
         <v>182</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" t="s" s="15">
-        <v>47</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="17"/>
+      <c r="F14" t="s" s="20">
+        <v>48</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
       <c r="I14" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s" s="18">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14" s="19">
         <v>12</v>
       </c>
       <c r="L14" t="s" s="18">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
@@ -65106,22 +65384,22 @@
         <v>182</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="F15" t="s" s="15">
-        <v>47</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="17"/>
+      <c r="F15" t="s" s="20">
+        <v>48</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="22"/>
       <c r="I15" t="s" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s" s="18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15" s="19">
         <v>6</v>
       </c>
       <c r="L15" t="s" s="18">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -65141,23 +65419,22 @@
       </c>
       <c r="E16" s="14"/>
       <c r="F16" t="s" s="15">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G16" s="16">
-        <f>D16</f>
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" t="s" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s" s="18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16" s="19">
         <v>30</v>
       </c>
-      <c r="L16" s="24"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="s" s="10">
@@ -65176,24 +65453,23 @@
       </c>
       <c r="E17" s="14"/>
       <c r="F17" t="s" s="15">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="16">
-        <f>D17+D18</f>
-        <v>787</v>
+        <v>540</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" t="s" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s" s="18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17" s="19">
         <v>24</v>
       </c>
       <c r="L17" t="s" s="18">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
@@ -65212,22 +65488,22 @@
         <v>393</v>
       </c>
       <c r="E18" s="14"/>
-      <c r="F18" t="s" s="15">
-        <v>59</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="17"/>
+      <c r="F18" t="s" s="20">
+        <v>60</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="22"/>
       <c r="I18" t="s" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J18" t="s" s="18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18" s="19">
         <v>6</v>
       </c>
       <c r="L18" t="s" s="18">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" ht="14.45" customHeight="1">
@@ -65238,18 +65514,17 @@
         <f>COUNTIF('Sheet1'!A1:A7000,A19)</f>
         <v>4</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="13">
         <f>B19-C19</f>
         <v>4</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" t="s" s="15">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G19" s="16">
-        <f>D19+D20+D21+D22</f>
-        <v>794</v>
+        <v>387</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="3"/>
@@ -65273,11 +65548,11 @@
         <v>780</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="F20" t="s" s="15">
-        <v>58</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="17"/>
+      <c r="F20" t="s" s="20">
+        <v>59</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -65291,17 +65566,17 @@
         <f>COUNTIF('Sheet1'!A1:A7000,A21)</f>
         <v>5</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13">
         <f>B21-C21</f>
         <v>5</v>
       </c>
       <c r="E21" s="14"/>
-      <c r="F21" t="s" s="15">
-        <v>58</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="17"/>
+      <c r="F21" t="s" s="20">
+        <v>59</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -65315,176 +65590,176 @@
         <f>COUNTIF('Sheet1'!A1:A7000,A22)</f>
         <v>5</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="13">
         <f>B22-C22</f>
         <v>5</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" t="s" s="15">
-        <v>58</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="17"/>
+      <c r="F22" t="s" s="20">
+        <v>59</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" ht="14.45" customHeight="1">
-      <c r="A23" t="s" s="25">
+      <c r="A23" t="s" s="30">
         <v>17</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="31">
         <f>COUNTIF('Sheet1'!A1:A7000,A23)</f>
         <v>194</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="3"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="17"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" ht="14.45" customHeight="1">
-      <c r="A24" t="s" s="25">
+      <c r="A24" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="31">
         <f>COUNTIF('Sheet1'!A1:A7000,A24)</f>
         <v>61</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="3"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="17"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" ht="14.45" customHeight="1">
-      <c r="A25" t="s" s="25">
+      <c r="A25" t="s" s="30">
         <v>24</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="31">
         <f>COUNTIF('Sheet1'!A1:A7000,A25)</f>
         <v>145</v>
       </c>
-      <c r="C25" s="23"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="3"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="17"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" ht="14.45" customHeight="1">
-      <c r="A26" t="s" s="25">
+      <c r="A26" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="31">
         <f>COUNTIF('Sheet1'!A1:A7000,A26)</f>
         <v>127</v>
       </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="3"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="17"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" ht="14.45" customHeight="1">
-      <c r="A27" t="s" s="25">
+      <c r="A27" t="s" s="30">
         <v>26</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="31">
         <f>COUNTIF('Sheet1'!A1:A7000,A27)</f>
         <v>335</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="3"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="17"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" ht="14.45" customHeight="1">
-      <c r="A28" t="s" s="25">
+      <c r="A28" t="s" s="30">
         <v>27</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="31">
         <f>COUNTIF('Sheet1'!A1:A7000,A28)</f>
         <v>215</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="3"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="17"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" ht="14.45" customHeight="1">
-      <c r="A29" t="s" s="25">
+      <c r="A29" t="s" s="30">
         <v>25</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="31">
         <f>COUNTIF('Sheet1'!A1:A7000,A29)</f>
         <v>219</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="3"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="17"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" ht="14.45" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34">
         <f>SUM(B2:B29)</f>
         <v>7000</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="13">
         <f>SUM(C2:C29)</f>
         <v>204</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="13">
         <f>SUM(D2:D29)</f>
         <v>5500</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31">
+      <c r="F30" s="35"/>
+      <c r="G30" s="36">
         <f>SUM(G2:G29)</f>
-        <v>5500</v>
-      </c>
-      <c r="H30" s="17"/>
+        <v>3993</v>
+      </c>
+      <c r="H30" s="22"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -65497,4 +65772,145 @@
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="16.3516" style="37" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.45" customHeight="1">
+      <c r="A1" t="s" s="38">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="39">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s" s="40">
+        <v>30</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" ht="16.45" customHeight="1">
+      <c r="A2" t="s" s="43">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="44">
+        <v>37</v>
+      </c>
+      <c r="C2" s="16">
+        <v>546</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" ht="16.45" customHeight="1">
+      <c r="A3" t="s" s="43">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="47">
+        <v>13</v>
+      </c>
+      <c r="C3" s="16">
+        <v>785</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" ht="16.45" customHeight="1">
+      <c r="A4" t="s" s="43">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s" s="47">
+        <v>42</v>
+      </c>
+      <c r="C4" s="16">
+        <v>89</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" ht="16.45" customHeight="1">
+      <c r="A5" t="s" s="43">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s" s="47">
+        <v>46</v>
+      </c>
+      <c r="C5" s="16">
+        <v>89</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" ht="16.45" customHeight="1">
+      <c r="A6" t="s" s="43">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="47">
+        <v>48</v>
+      </c>
+      <c r="C6" s="16">
+        <v>774</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+    </row>
+    <row r="7" ht="16.45" customHeight="1">
+      <c r="A7" t="s" s="43">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s" s="47">
+        <v>52</v>
+      </c>
+      <c r="C7" s="16">
+        <v>783</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+    </row>
+    <row r="8" ht="16.45" customHeight="1">
+      <c r="A8" t="s" s="43">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="47">
+        <v>60</v>
+      </c>
+      <c r="C8" s="16">
+        <v>540</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" ht="16.45" customHeight="1">
+      <c r="A9" t="s" s="43">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="47">
+        <v>59</v>
+      </c>
+      <c r="C9" s="16">
+        <v>387</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>